--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Epgn-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Epgn-Egfr.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Epgn</t>
+  </si>
+  <si>
+    <t>Egfr</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Epgn</t>
-  </si>
-  <si>
-    <t>Egfr</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -525,25 +525,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.038552</v>
+        <v>0.128109</v>
       </c>
       <c r="H2">
-        <v>0.115656</v>
+        <v>0.384327</v>
       </c>
       <c r="I2">
-        <v>0.1790584475903838</v>
+        <v>0.7686801351245942</v>
       </c>
       <c r="J2">
-        <v>0.1790584475903838</v>
+        <v>0.7686801351245942</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N2">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q2">
-        <v>0.05039157621333332</v>
+        <v>0.05492583698700001</v>
       </c>
       <c r="R2">
-        <v>0.45352418592</v>
+        <v>0.494332532883</v>
       </c>
       <c r="S2">
-        <v>0.002249445302897808</v>
+        <v>0.003167349532015624</v>
       </c>
       <c r="T2">
-        <v>0.002249445302897809</v>
+        <v>0.003167349532015624</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,25 +587,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.038552</v>
+        <v>0.128109</v>
       </c>
       <c r="H3">
-        <v>0.115656</v>
+        <v>0.384327</v>
       </c>
       <c r="I3">
-        <v>0.1790584475903838</v>
+        <v>0.7686801351245942</v>
       </c>
       <c r="J3">
-        <v>0.1790584475903838</v>
+        <v>0.7686801351245942</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N3">
         <v>240.678711</v>
       </c>
       <c r="O3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q3">
-        <v>3.092881888824</v>
+        <v>10.277702995833</v>
       </c>
       <c r="R3">
-        <v>27.835936999416</v>
+        <v>92.49932696249698</v>
       </c>
       <c r="S3">
-        <v>0.1380641202366675</v>
+        <v>0.5926733129574698</v>
       </c>
       <c r="T3">
-        <v>0.1380641202366676</v>
+        <v>0.5926733129574698</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,25 +649,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.038552</v>
+        <v>0.128109</v>
       </c>
       <c r="H4">
-        <v>0.115656</v>
+        <v>0.384327</v>
       </c>
       <c r="I4">
-        <v>0.1790584475903838</v>
+        <v>0.7686801351245942</v>
       </c>
       <c r="J4">
-        <v>0.1790584475903838</v>
+        <v>0.7686801351245942</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N4">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q4">
-        <v>0.8679542793173333</v>
+        <v>2.997254519249</v>
       </c>
       <c r="R4">
-        <v>7.811588513856</v>
+        <v>26.975290673241</v>
       </c>
       <c r="S4">
-        <v>0.03874488205081843</v>
+        <v>0.1728394726351088</v>
       </c>
       <c r="T4">
-        <v>0.03874488205081845</v>
+        <v>0.1728394726351088</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,16 +720,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.176752</v>
+        <v>0.038552</v>
       </c>
       <c r="H5">
-        <v>0.5302560000000001</v>
+        <v>0.115656</v>
       </c>
       <c r="I5">
-        <v>0.8209415524096162</v>
+        <v>0.2313198648754057</v>
       </c>
       <c r="J5">
-        <v>0.8209415524096162</v>
+        <v>0.2313198648754058</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N5">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q5">
-        <v>0.2310337175466667</v>
+        <v>0.016528900136</v>
       </c>
       <c r="R5">
-        <v>2.07930345792</v>
+        <v>0.148760101224</v>
       </c>
       <c r="S5">
-        <v>0.0103131862465707</v>
+        <v>0.0009531544166160561</v>
       </c>
       <c r="T5">
-        <v>0.0103131862465707</v>
+        <v>0.0009531544166160562</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,7 +773,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -782,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.176752</v>
+        <v>0.038552</v>
       </c>
       <c r="H6">
-        <v>0.5302560000000001</v>
+        <v>0.115656</v>
       </c>
       <c r="I6">
-        <v>0.8209415524096162</v>
+        <v>0.2313198648754057</v>
       </c>
       <c r="J6">
-        <v>0.8209415524096162</v>
+        <v>0.2313198648754058</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N6">
         <v>240.678711</v>
       </c>
       <c r="O6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q6">
-        <v>14.180147842224</v>
+        <v>3.092881888823999</v>
       </c>
       <c r="R6">
-        <v>127.621330580016</v>
+        <v>27.835936999416</v>
       </c>
       <c r="S6">
-        <v>0.6329920465882825</v>
+        <v>0.1783539139415371</v>
       </c>
       <c r="T6">
-        <v>0.6329920465882825</v>
+        <v>0.1783539139415371</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +835,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -844,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.176752</v>
+        <v>0.038552</v>
       </c>
       <c r="H7">
-        <v>0.5302560000000001</v>
+        <v>0.115656</v>
       </c>
       <c r="I7">
-        <v>0.8209415524096162</v>
+        <v>0.2313198648754057</v>
       </c>
       <c r="J7">
-        <v>0.8209415524096162</v>
+        <v>0.2313198648754058</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N7">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q7">
-        <v>3.979369547050667</v>
+        <v>0.9019675138053334</v>
       </c>
       <c r="R7">
-        <v>35.81432592345601</v>
+        <v>8.117707624248</v>
       </c>
       <c r="S7">
-        <v>0.177636319574763</v>
+        <v>0.0520127965172526</v>
       </c>
       <c r="T7">
-        <v>0.177636319574763</v>
+        <v>0.05201279651725261</v>
       </c>
     </row>
   </sheetData>
